--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/149.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/149.xlsx
@@ -479,13 +479,13 @@
         <v>0.03980657111316928</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.010046701057198</v>
+        <v>-2.01242032189212</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0232851377308015</v>
+        <v>-0.01336724324748587</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1784000000776204</v>
+        <v>-0.1748442908826021</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0415196369321769</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.80776084667368</v>
+        <v>-1.818360291436518</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006934695630931786</v>
+        <v>0.01065701060092653</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1396114468714075</v>
+        <v>-0.1361863812634572</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.03321692950368453</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.917506181868128</v>
+        <v>-1.927797118883191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05905809858092268</v>
+        <v>0.06764122484937533</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1244127182361281</v>
+        <v>-0.1208381208116542</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.01433068492111514</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.010525989879634</v>
+        <v>-2.027984222963541</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1381509854071609</v>
+        <v>0.1416767882388745</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1742681998842061</v>
+        <v>-0.1701962124174012</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.009890672781591033</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.017553985256242</v>
+        <v>-2.039278597168434</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2751724979546284</v>
+        <v>0.2735827386421147</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1860056604717453</v>
+        <v>-0.1834714896864512</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.03301725579526917</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.899519078359464</v>
+        <v>-1.931536988315402</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4127433431754298</v>
+        <v>0.405871175691831</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2234767596734295</v>
+        <v>-0.2206498213315734</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.04862451721373674</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.451593373924881</v>
+        <v>-1.487591191229028</v>
       </c>
       <c r="F8" t="n">
-        <v>0.651997397651377</v>
+        <v>0.6425265245985108</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.217119296442496</v>
+        <v>-0.2120824352543338</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05026450535121399</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7110276084771963</v>
+        <v>-0.7494525632663886</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7363726926487003</v>
+        <v>0.7200202079975075</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1432301168312778</v>
+        <v>-0.1419409951709326</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.02907229817177649</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1190722996378753</v>
+        <v>0.07623851728991969</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7801650526415281</v>
+        <v>0.7603056533880773</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0610427084125624</v>
+        <v>-0.06171796261560039</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.02021326321203098</v>
       </c>
       <c r="E11" t="n">
-        <v>1.211037046906378</v>
+        <v>1.16257299816153</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8591225738233345</v>
+        <v>0.8301527518957953</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09004581302196932</v>
+        <v>0.08944138967938986</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.09706449939365118</v>
       </c>
       <c r="E12" t="n">
-        <v>2.459799282962371</v>
+        <v>2.402777292255011</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7926123958527739</v>
+        <v>0.7568144789770324</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2423809576005712</v>
+        <v>0.2430326015167897</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.196405883912208</v>
       </c>
       <c r="E13" t="n">
-        <v>3.820028831131514</v>
+        <v>3.748878444791359</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7640801512409564</v>
+        <v>0.7153312050351528</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5280323737150987</v>
+        <v>0.5253628372853727</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3123206332807829</v>
       </c>
       <c r="E14" t="n">
-        <v>5.149110114909238</v>
+        <v>5.069710294354346</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6130750528198535</v>
+        <v>0.5542067376832078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7987195900434206</v>
+        <v>0.7974540786698948</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4425212049893708</v>
       </c>
       <c r="E15" t="n">
-        <v>6.338909594681306</v>
+        <v>6.25139727957523</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3639802307975345</v>
+        <v>0.3015829647909327</v>
       </c>
       <c r="G15" t="n">
-        <v>1.034871252831284</v>
+        <v>1.032620405487824</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5875823139444245</v>
       </c>
       <c r="E16" t="n">
-        <v>7.430365933773629</v>
+        <v>7.337350847819486</v>
       </c>
       <c r="F16" t="n">
-        <v>0.138020341820093</v>
+        <v>0.06749326705197307</v>
       </c>
       <c r="G16" t="n">
-        <v>1.292043940984118</v>
+        <v>1.287268366970092</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7490829096947365</v>
       </c>
       <c r="E17" t="n">
-        <v>8.478612299948006</v>
+        <v>8.379305859566024</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2307644682050517</v>
+        <v>-0.3048267899196129</v>
       </c>
       <c r="G17" t="n">
-        <v>1.559273037302942</v>
+        <v>1.553220933781541</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9261591694302909</v>
       </c>
       <c r="E18" t="n">
-        <v>9.181221381295085</v>
+        <v>9.079069114341792</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.46035089723797</v>
+        <v>-0.5389967626337588</v>
       </c>
       <c r="G18" t="n">
-        <v>1.897550208719037</v>
+        <v>1.887188440843515</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.114028427552875</v>
       </c>
       <c r="E19" t="n">
-        <v>9.818020723180583</v>
+        <v>9.71601484000557</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7293554871256215</v>
+        <v>-0.8115003970280618</v>
       </c>
       <c r="G19" t="n">
-        <v>2.10166900836931</v>
+        <v>2.093411704058967</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.300706821494366</v>
       </c>
       <c r="E20" t="n">
-        <v>10.16653688898074</v>
+        <v>10.06995822373597</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.034153271831651</v>
+        <v>-1.120361512095728</v>
       </c>
       <c r="G20" t="n">
-        <v>2.333751831728612</v>
+        <v>2.326818277499282</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.473889979598056</v>
       </c>
       <c r="E21" t="n">
-        <v>10.60892440713702</v>
+        <v>10.50905604192874</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.316269440999737</v>
+        <v>-1.404658484756377</v>
       </c>
       <c r="G21" t="n">
-        <v>2.494668528556545</v>
+        <v>2.489831567796788</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.624042057528569</v>
       </c>
       <c r="E22" t="n">
-        <v>10.83299075111154</v>
+        <v>10.73471214521577</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.650459671767374</v>
+        <v>-1.737934997424099</v>
       </c>
       <c r="G22" t="n">
-        <v>2.638481933612425</v>
+        <v>2.634416242222105</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.748594644903607</v>
       </c>
       <c r="E23" t="n">
-        <v>10.99449140903348</v>
+        <v>10.89904603755605</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.843432055010157</v>
+        <v>-1.930650028540549</v>
       </c>
       <c r="G23" t="n">
-        <v>2.676507087544807</v>
+        <v>2.674131892690764</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.844920142814473</v>
       </c>
       <c r="E24" t="n">
-        <v>10.8147872199737</v>
+        <v>10.73030646569525</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.172542139063796</v>
+        <v>-2.252838363508268</v>
       </c>
       <c r="G24" t="n">
-        <v>2.777039688822282</v>
+        <v>2.775261047215212</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.912438766849895</v>
       </c>
       <c r="E25" t="n">
-        <v>10.71334168760587</v>
+        <v>10.63424722676051</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.408139747120962</v>
+        <v>-2.48931348722556</v>
       </c>
       <c r="G25" t="n">
-        <v>2.786617595175397</v>
+        <v>2.787004803879237</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.948549335262101</v>
       </c>
       <c r="E26" t="n">
-        <v>10.3504075066546</v>
+        <v>10.28304578433942</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.646586329787682</v>
+        <v>-2.726825102534227</v>
       </c>
       <c r="G26" t="n">
-        <v>2.822796424678493</v>
+        <v>2.823112802521874</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.954440343901256</v>
       </c>
       <c r="E27" t="n">
-        <v>10.18031585236861</v>
+        <v>10.11717564933675</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.864935836313634</v>
+        <v>-2.939311387833334</v>
       </c>
       <c r="G27" t="n">
-        <v>2.818700826924868</v>
+        <v>2.818137328079443</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.930778299428339</v>
       </c>
       <c r="E28" t="n">
-        <v>9.814425663507533</v>
+        <v>9.759453045696105</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.915797903189784</v>
+        <v>-2.986762555273625</v>
       </c>
       <c r="G28" t="n">
-        <v>2.868540568381734</v>
+        <v>2.866766648832027</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.882013035378662</v>
       </c>
       <c r="E29" t="n">
-        <v>9.387529641543088</v>
+        <v>9.339386692698985</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.993764579334732</v>
+        <v>-3.061407264063068</v>
       </c>
       <c r="G29" t="n">
-        <v>2.801534574387963</v>
+        <v>2.797860813758847</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.81272301161821</v>
       </c>
       <c r="E30" t="n">
-        <v>8.854171688271229</v>
+        <v>8.815052591049543</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.01929674350135</v>
+        <v>-3.07968241307093</v>
       </c>
       <c r="G30" t="n">
-        <v>2.754033825345351</v>
+        <v>2.752173334743973</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.731240085384571</v>
       </c>
       <c r="E31" t="n">
-        <v>8.227918274498446</v>
+        <v>8.200774314751614</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.924619493355114</v>
+        <v>-2.986821580990674</v>
       </c>
       <c r="G31" t="n">
-        <v>2.68956829821336</v>
+        <v>2.687633828713281</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.642724031421576</v>
       </c>
       <c r="E32" t="n">
-        <v>7.766604750427639</v>
+        <v>7.746079541085878</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.959568226914914</v>
+        <v>-3.014342518317056</v>
       </c>
       <c r="G32" t="n">
-        <v>2.569851551885472</v>
+        <v>2.56859076256931</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.553715610478507</v>
       </c>
       <c r="E33" t="n">
-        <v>7.281107996577171</v>
+        <v>7.266803310802789</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.901915841549473</v>
+        <v>-2.954223644988537</v>
       </c>
       <c r="G33" t="n">
-        <v>2.453092387486508</v>
+        <v>2.452369912709831</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.467128170321778</v>
       </c>
       <c r="E34" t="n">
-        <v>6.657333662920435</v>
+        <v>6.648602578854581</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.78205979452935</v>
+        <v>-2.830984243867178</v>
       </c>
       <c r="G34" t="n">
-        <v>2.322263066162238</v>
+        <v>2.318746707445252</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.387158178915289</v>
       </c>
       <c r="E35" t="n">
-        <v>6.068105900938008</v>
+        <v>6.062108888085852</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.801830261702447</v>
+        <v>-2.847058127133901</v>
       </c>
       <c r="G35" t="n">
-        <v>2.111953649307889</v>
+        <v>2.110173433681698</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.313008974352655</v>
       </c>
       <c r="E36" t="n">
-        <v>5.491706394794182</v>
+        <v>5.488734646693166</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.693144241376634</v>
+        <v>-2.74000751267512</v>
       </c>
       <c r="G36" t="n">
-        <v>1.989575236645882</v>
+        <v>1.990769917158949</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.245814540119221</v>
       </c>
       <c r="E37" t="n">
-        <v>4.951167766290949</v>
+        <v>4.95056491696749</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.621006158037864</v>
+        <v>-2.662676740255178</v>
       </c>
       <c r="G37" t="n">
-        <v>1.79762045676502</v>
+        <v>1.797537033751591</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.183534305097198</v>
       </c>
       <c r="E38" t="n">
-        <v>4.457533333583354</v>
+        <v>4.457978780994683</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.593117687246658</v>
+        <v>-2.631083815461991</v>
       </c>
       <c r="G38" t="n">
-        <v>1.58934152457715</v>
+        <v>1.591337380822959</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.127019989169714</v>
       </c>
       <c r="E39" t="n">
-        <v>3.945026411611365</v>
+        <v>3.951961539859816</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.43548675533444</v>
+        <v>-2.471760025984814</v>
       </c>
       <c r="G39" t="n">
-        <v>1.404751580164854</v>
+        <v>1.405571644127052</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.073724402301602</v>
       </c>
       <c r="E40" t="n">
-        <v>3.391305372967239</v>
+        <v>3.400253671671833</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.328887884363472</v>
+        <v>-2.365087963124706</v>
       </c>
       <c r="G40" t="n">
-        <v>1.32182753079737</v>
+        <v>1.323831257138786</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.023549502817723</v>
       </c>
       <c r="E41" t="n">
-        <v>2.90669164384382</v>
+        <v>2.914169808689119</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.243306890719232</v>
+        <v>-2.278082482175689</v>
       </c>
       <c r="G41" t="n">
-        <v>1.14053673046332</v>
+        <v>1.147427786176375</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9736229444120897</v>
       </c>
       <c r="E42" t="n">
-        <v>2.473770276683036</v>
+        <v>2.482551729360772</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.209269514230666</v>
+        <v>-2.238033926662875</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9680887695527385</v>
+        <v>0.9733239571501846</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9246701018658724</v>
       </c>
       <c r="E43" t="n">
-        <v>2.002915048698905</v>
+        <v>2.013319315090703</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.149147492863904</v>
+        <v>-2.177793066852455</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8025035320110274</v>
+        <v>0.8057239751332087</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8751245707332064</v>
       </c>
       <c r="E44" t="n">
-        <v>1.771518497676491</v>
+        <v>1.77856065922519</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.106281443123962</v>
+        <v>-2.133312860503619</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7531328482523101</v>
+        <v>0.7559393243455892</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8268241918099246</v>
       </c>
       <c r="E45" t="n">
-        <v>1.355428116979776</v>
+        <v>1.363502835072048</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.064158330409273</v>
+        <v>-2.088328181026406</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6538988127499082</v>
+        <v>0.6556333818215816</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7784204313298485</v>
       </c>
       <c r="E46" t="n">
-        <v>1.000677261440148</v>
+        <v>1.010097765881133</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.018185166923884</v>
+        <v>-2.043574095350464</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4993238389616955</v>
+        <v>0.5052767792784547</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7307379442641525</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6851840168048807</v>
+        <v>0.6966302838549793</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.973305946727798</v>
+        <v>-1.995055742945931</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4697795000548816</v>
+        <v>0.4713818515203657</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6822909111125401</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5119285840850714</v>
+        <v>0.5226744126261912</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.867462604935054</v>
+        <v>-1.889659422583637</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3653811078154922</v>
+        <v>0.3655841562821399</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6344613058295805</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3358761193867107</v>
+        <v>0.3486728948428853</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.817425324078466</v>
+        <v>-1.840789276905493</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2376856585617312</v>
+        <v>0.2402009411175697</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5871582463535836</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1973419744636733</v>
+        <v>0.210437813552895</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.759230689125737</v>
+        <v>-1.777909574038212</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1954106530018374</v>
+        <v>0.1962653453847036</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5413250904218238</v>
       </c>
       <c r="E51" t="n">
-        <v>0.05430141279635201</v>
+        <v>0.06599165281025221</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.726096799612797</v>
+        <v>-1.742547660459071</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07902138309637931</v>
+        <v>0.08004292150610345</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4969645402287126</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1087953005145827</v>
+        <v>-0.09823835426801895</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.651429267546095</v>
+        <v>-1.668937869241884</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03596409003319899</v>
+        <v>0.03817873493686906</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4550836182769473</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1140871528003956</v>
+        <v>-0.1067490756568918</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.502667933382407</v>
+        <v>-1.524448422973405</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.06950778324691749</v>
+        <v>-0.0681478307261137</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4163549408452093</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1851604122036068</v>
+        <v>-0.177199023488068</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.451231349526982</v>
+        <v>-1.470982928470624</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.09645341658446398</v>
+        <v>-0.09415849670560757</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.38197669380328</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1756958352272258</v>
+        <v>-0.1696043812277921</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.404442057127198</v>
+        <v>-1.421451694761534</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1487092773925255</v>
+        <v>-0.1479222678318751</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3523044712938821</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2644563474964929</v>
+        <v>-0.2597390121899547</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.361604339731439</v>
+        <v>-1.378901235855412</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2358611421198233</v>
+        <v>-0.2338574157784075</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3269642194245171</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.238335500178508</v>
+        <v>-0.2344350807959249</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.326147197995459</v>
+        <v>-1.344295638464056</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2792300909690211</v>
+        <v>-0.2752808769936777</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3052611727039555</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3317677011997955</v>
+        <v>-0.3296490714625248</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.298986711047855</v>
+        <v>-1.314469550134529</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.306078135121047</v>
+        <v>-0.3038083995481314</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.285689394880201</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3377253635739186</v>
+        <v>-0.3363937433972982</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.30222368137081</v>
+        <v>-1.318420338128994</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3848782543907233</v>
+        <v>-0.3804993331952648</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2671716635507527</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4600392414519525</v>
+        <v>-0.4617612183706554</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.247661095540482</v>
+        <v>-1.263830993973604</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4005145603417243</v>
+        <v>-0.3973255976019691</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2484536708217814</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5185581243436694</v>
+        <v>-0.5254507540758452</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.272469210911302</v>
+        <v>-1.290251691934197</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4463704594025772</v>
+        <v>-0.4406189935333445</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.229144686696795</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6731409682274887</v>
+        <v>-0.6794496368656618</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.309057285385937</v>
+        <v>-1.324168655959984</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4857146413586093</v>
+        <v>-0.4799017887436458</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2091037979357061</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.780114455749326</v>
+        <v>-0.7848742895721393</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.221038923132363</v>
+        <v>-1.238461740786041</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4684665398273963</v>
+        <v>-0.4654082206747091</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1883070161148736</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7966101761405572</v>
+        <v>-0.8043307399305371</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.223991783003923</v>
+        <v>-1.241978099503026</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5813599132644456</v>
+        <v>-0.5732411226367766</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1671725114856258</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9277243949257832</v>
+        <v>-0.9344596227458288</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.282990741727637</v>
+        <v>-1.303439611142015</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.587654415730527</v>
+        <v>-0.5804217978681504</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1461462643244418</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.017867682993113</v>
+        <v>-1.027514846187565</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.27304766293838</v>
+        <v>-1.290807320684016</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6032340569931612</v>
+        <v>-0.5977926728908247</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1250007615172535</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9880620569121631</v>
+        <v>-1.000928089209675</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.273723704150979</v>
+        <v>-1.293216356949167</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.619318958393733</v>
+        <v>-0.6148739283951798</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1040021422555583</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.075190311352641</v>
+        <v>-1.087238640716637</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.227200420982695</v>
+        <v>-1.247259720664551</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6490458835186177</v>
+        <v>-0.643503762192518</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.08326527027954853</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.014673998195994</v>
+        <v>-1.032378565272384</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.253020630648511</v>
+        <v>-1.272954795810224</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6700716309409523</v>
+        <v>-0.6645688600928851</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.06297826142351494</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.022586592318772</v>
+        <v>-1.041125389529452</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.202781088334836</v>
+        <v>-1.22583889444277</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7807535075125741</v>
+        <v>-0.7754286008252138</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.04301741729632343</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.058702461057017</v>
+        <v>-1.077920447518537</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.152561221260177</v>
+        <v>-1.177027774481675</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7282127492435572</v>
+        <v>-0.7232246826481552</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.02409643369548688</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.097702719835044</v>
+        <v>-1.11972246033248</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.190761091315023</v>
+        <v>-1.213924356704084</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.710942611444646</v>
+        <v>-0.7081676157337928</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.00676616632139949</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9341652811701456</v>
+        <v>-0.9607142616891243</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.135155717816834</v>
+        <v>-1.159785182017386</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7702799842794393</v>
+        <v>-0.7681818167907455</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.008721104304930321</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.772529257603778</v>
+        <v>-0.8052074685811016</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.146820773524793</v>
+        <v>-1.169692058366853</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7926861464711547</v>
+        <v>-0.790542332427943</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.02207167656800331</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6684440951695274</v>
+        <v>-0.7010357350951795</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.006774783235746</v>
+        <v>-1.036712626922885</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7798799269002522</v>
+        <v>-0.7775881550596384</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.03246146187905816</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4135883631632479</v>
+        <v>-0.4535385424809806</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9879817819369768</v>
+        <v>-1.017098774652358</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7164721406177753</v>
+        <v>-0.7127354192238075</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.03961820714090415</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.2471688954872474</v>
+        <v>-0.2798376623498432</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9255380823662965</v>
+        <v>-0.9571853108191681</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6967244967219368</v>
+        <v>-0.6961027591690231</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.0434008964228758</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.05426970413360554</v>
+        <v>-0.08933255407969966</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.8605326666756995</v>
+        <v>-0.8962825759682413</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.646063117283753</v>
+        <v>-0.6470720635405067</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.0434360083719888</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1736435425733701</v>
+        <v>0.1409653315960466</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.6850421268036432</v>
+        <v>-0.7232215346099127</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6172081987520687</v>
+        <v>-0.6178126220946482</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.03907777535820314</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4010893056013196</v>
+        <v>0.3711325736847249</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.6279005106430643</v>
+        <v>-0.6681072550775691</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5702772446313674</v>
+        <v>-0.5720275538942537</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.03023556335013456</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6733111905729096</v>
+        <v>0.644020268744625</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5601956521594366</v>
+        <v>-0.6034748819187202</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4468300729859971</v>
+        <v>-0.4513711181509495</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.01691482974063042</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9605460699234656</v>
+        <v>0.9284927445372984</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4013676787054693</v>
+        <v>-0.4446343163117826</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3729440414130215</v>
+        <v>-0.3771419504095304</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.0005127485358191369</v>
       </c>
       <c r="E83" t="n">
-        <v>1.217750238458726</v>
+        <v>1.187118252339093</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3771765788301991</v>
+        <v>-0.4201787812241338</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2955196148553619</v>
+        <v>-0.3000197355231606</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.02090026101964551</v>
       </c>
       <c r="E84" t="n">
-        <v>1.431138436714339</v>
+        <v>1.402333886794536</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.2524922281554863</v>
+        <v>-0.2970810418236922</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1886830669970778</v>
+        <v>-0.1959928117963982</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.04279088452927048</v>
       </c>
       <c r="E85" t="n">
-        <v>1.707251296953784</v>
+        <v>1.675463980799117</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.1710162763795988</v>
+        <v>-0.2173947497887236</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.201896957520397</v>
+        <v>-0.2068299334465534</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.06501336648614151</v>
       </c>
       <c r="E86" t="n">
-        <v>1.847028916982649</v>
+        <v>1.821498326835152</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.06129140343372791</v>
+        <v>-0.1077422817224325</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1596219519605032</v>
+        <v>-0.1629273921152346</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.08559640034363288</v>
       </c>
       <c r="E87" t="n">
-        <v>2.062466488134195</v>
+        <v>2.03784568103881</v>
       </c>
       <c r="F87" t="n">
-        <v>0.07137007614773666</v>
+        <v>0.02373710949893525</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.09989107434538468</v>
+        <v>-0.1035223364582254</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1024424763345505</v>
       </c>
       <c r="E88" t="n">
-        <v>2.286255804743363</v>
+        <v>2.259335355711758</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1909514568311925</v>
+        <v>0.1457881261837119</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.07497277763607349</v>
+        <v>-0.08066443077869677</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1134224633572169</v>
       </c>
       <c r="E89" t="n">
-        <v>2.401341786816384</v>
+        <v>2.37310388378025</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4118697625631079</v>
+        <v>0.3676146409486178</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.006416374807822028</v>
+        <v>-0.01158230556393089</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1166439622179426</v>
       </c>
       <c r="E90" t="n">
-        <v>2.477980777832515</v>
+        <v>2.449824723790688</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4683943632281369</v>
+        <v>0.4281514163538422</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01239630172996379</v>
+        <v>0.008052008955173894</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1106284423887539</v>
       </c>
       <c r="E91" t="n">
-        <v>2.521088439507577</v>
+        <v>2.497879527563998</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6459437201108545</v>
+        <v>0.6054630963492434</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01516477308401125</v>
+        <v>-0.02034959206957572</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09431299300955401</v>
       </c>
       <c r="E92" t="n">
-        <v>2.640197614454642</v>
+        <v>2.613154391931575</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7899035089450155</v>
+        <v>0.7540363352279367</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04278251258635312</v>
+        <v>-0.04621072623254602</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06646994588003455</v>
       </c>
       <c r="E93" t="n">
-        <v>2.689258216446464</v>
+        <v>2.661908060194743</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8909397963413066</v>
+        <v>0.8564687775848215</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04814204769438196</v>
+        <v>-0.05296326826292597</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02657758567621251</v>
       </c>
       <c r="E94" t="n">
-        <v>2.643186676765993</v>
+        <v>2.616865929019602</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9322200218165384</v>
+        <v>0.9005428870003621</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09243337174866201</v>
+        <v>-0.09777401862723525</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02522036710909336</v>
       </c>
       <c r="E95" t="n">
-        <v>2.504413280936518</v>
+        <v>2.481289366025489</v>
       </c>
       <c r="F95" t="n">
-        <v>1.060864604600444</v>
+        <v>1.031254156890535</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.05595547861251857</v>
+        <v>-0.06415297019625256</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08560198078712684</v>
       </c>
       <c r="E96" t="n">
-        <v>2.417266138266584</v>
+        <v>2.398272449529848</v>
       </c>
       <c r="F96" t="n">
-        <v>1.052580541965038</v>
+        <v>1.027309664972555</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06096558147561867</v>
+        <v>-0.06709481193396354</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1501220482573058</v>
       </c>
       <c r="E97" t="n">
-        <v>2.216459074847527</v>
+        <v>2.200673237080002</v>
       </c>
       <c r="F97" t="n">
-        <v>1.033763143369888</v>
+        <v>1.011563177683064</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1315288586835285</v>
+        <v>-0.1367845085295515</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2120326557993797</v>
       </c>
       <c r="E98" t="n">
-        <v>2.09180620455524</v>
+        <v>2.076363502956159</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9747673326844173</v>
+        <v>0.9548071962072033</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1838429581990781</v>
+        <v>-0.1843560884326222</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2660832939799048</v>
       </c>
       <c r="E99" t="n">
-        <v>1.925103413437406</v>
+        <v>1.910806597758632</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9537746396636301</v>
+        <v>0.9337279321347445</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2177646442822293</v>
+        <v>-0.2192930168490123</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.308017904480671</v>
       </c>
       <c r="E100" t="n">
-        <v>1.715195371458989</v>
+        <v>1.702282118587838</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8693348098823334</v>
+        <v>0.8504182480825416</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2869726910266992</v>
+        <v>-0.2877817368550478</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3375314421083759</v>
       </c>
       <c r="E101" t="n">
-        <v>1.581120422706596</v>
+        <v>1.56789866208767</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7877187704046501</v>
+        <v>0.7737776830472899</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3562232362874443</v>
+        <v>-0.3543407094183686</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3514282808321373</v>
       </c>
       <c r="E102" t="n">
-        <v>1.422021717963765</v>
+        <v>1.411576527074814</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6800212340870144</v>
+        <v>0.6673362139884522</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3285362399437652</v>
+        <v>-0.3261075284395982</v>
       </c>
     </row>
   </sheetData>
